--- a/post_comment_count/Mid_Pendamic_data/BingeEatingDisorder_Submissin_Count.xlsx
+++ b/post_comment_count/Mid_Pendamic_data/BingeEatingDisorder_Submissin_Count.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\NDSU\MSCourses\pythonProject\post_comment_count\Mid_Pendamic_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62769E1A-6ECD-423B-AB45-A30874ED1D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Count" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly Count" sheetId="2" r:id="rId2"/>
     <sheet name="Monthly Count" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2202,8 +2208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,6 +2272,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2312,7 +2326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2344,9 +2358,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2378,6 +2410,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2553,14 +2603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C715"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2579,7 +2629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2590,7 +2640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2601,7 +2651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2612,7 +2662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2623,7 +2673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2634,7 +2684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2645,7 +2695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2656,7 +2706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2667,7 +2717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2678,7 +2728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2689,7 +2739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2700,7 +2750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2711,7 +2761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2722,7 +2772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2733,7 +2783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2744,7 +2794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2755,7 +2805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2766,7 +2816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2777,7 +2827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2788,7 +2838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2799,7 +2849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2810,7 +2860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2821,7 +2871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2832,7 +2882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2843,7 +2893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2854,7 +2904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2865,7 +2915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2876,7 +2926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2887,7 +2937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2898,7 +2948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2909,7 +2959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2920,7 +2970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2931,7 +2981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2942,7 +2992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2953,7 +3003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2964,7 +3014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2975,7 +3025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2986,7 +3036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2997,7 +3047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3008,7 +3058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3019,7 +3069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3030,7 +3080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3041,7 +3091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3052,7 +3102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3063,7 +3113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3074,7 +3124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3085,7 +3135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3096,7 +3146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3107,7 +3157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3118,7 +3168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3129,7 +3179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3140,7 +3190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3151,7 +3201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3162,7 +3212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3173,7 +3223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3184,7 +3234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3195,7 +3245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3206,7 +3256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3217,7 +3267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3228,7 +3278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3239,7 +3289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3250,7 +3300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3261,7 +3311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3272,7 +3322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3283,7 +3333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3294,7 +3344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3305,7 +3355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3316,7 +3366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3327,7 +3377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3338,7 +3388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3349,7 +3399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3360,7 +3410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3371,7 +3421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3382,7 +3432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3393,7 +3443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3404,7 +3454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3415,7 +3465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3426,7 +3476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3437,7 +3487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3448,7 +3498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3459,7 +3509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3470,7 +3520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3481,7 +3531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3492,7 +3542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3503,7 +3553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3514,7 +3564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3525,7 +3575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3536,7 +3586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3547,7 +3597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3558,7 +3608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3569,7 +3619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3580,7 +3630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3591,7 +3641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3602,7 +3652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3613,7 +3663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3624,7 +3674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3635,7 +3685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3646,7 +3696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3657,7 +3707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3668,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3679,7 +3729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3690,7 +3740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3701,7 +3751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3712,7 +3762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3723,7 +3773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3734,7 +3784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3745,7 +3795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3756,7 +3806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3767,7 +3817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3778,7 +3828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3789,7 +3839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3800,7 +3850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3811,7 +3861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3822,7 +3872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3833,7 +3883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3844,7 +3894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3855,7 +3905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3866,7 +3916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3877,7 +3927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3888,7 +3938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3899,7 +3949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3910,7 +3960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3921,7 +3971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3932,7 +3982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3943,7 +3993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3954,7 +4004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3965,7 +4015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3976,7 +4026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3987,7 +4037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3998,7 +4048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4009,7 +4059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4020,7 +4070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4031,7 +4081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4042,7 +4092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4053,7 +4103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4064,7 +4114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4075,7 +4125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4086,7 +4136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4097,7 +4147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4108,7 +4158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4119,7 +4169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4130,7 +4180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4141,7 +4191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4152,7 +4202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4163,7 +4213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4174,7 +4224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4185,7 +4235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4196,7 +4246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4207,7 +4257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4218,7 +4268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4229,7 +4279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4240,7 +4290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4251,7 +4301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4262,7 +4312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4273,7 +4323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4284,7 +4334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4295,7 +4345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4306,7 +4356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4317,7 +4367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4328,7 +4378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4339,7 +4389,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4350,7 +4400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4361,7 +4411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4372,7 +4422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4383,7 +4433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4394,7 +4444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4405,7 +4455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4416,7 +4466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4427,7 +4477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4438,7 +4488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4449,7 +4499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4460,7 +4510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4471,7 +4521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4482,7 +4532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4493,7 +4543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4504,7 +4554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4515,7 +4565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4526,7 +4576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4537,7 +4587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4548,7 +4598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4559,7 +4609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4570,7 +4620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4581,7 +4631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4592,7 +4642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4603,7 +4653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4614,7 +4664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4625,7 +4675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4636,7 +4686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4647,7 +4697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4658,7 +4708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4669,7 +4719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4680,7 +4730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4691,7 +4741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4702,7 +4752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4713,7 +4763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4724,7 +4774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4735,7 +4785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4746,7 +4796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4757,7 +4807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4768,7 +4818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4779,7 +4829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4790,7 +4840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4801,7 +4851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4812,7 +4862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4823,7 +4873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4834,7 +4884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4845,7 +4895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4856,7 +4906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4867,7 +4917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4878,7 +4928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4889,7 +4939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4900,7 +4950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4911,7 +4961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4922,7 +4972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4933,7 +4983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4944,7 +4994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4955,7 +5005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4966,7 +5016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4977,7 +5027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4988,7 +5038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4999,7 +5049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5010,7 +5060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5021,7 +5071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5032,7 +5082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5043,7 +5093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5054,7 +5104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5065,7 +5115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5076,7 +5126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5087,7 +5137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5098,7 +5148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5109,7 +5159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5120,7 +5170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5131,7 +5181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5142,7 +5192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5153,7 +5203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5164,7 +5214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5175,7 +5225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5186,7 +5236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5197,7 +5247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5208,7 +5258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5219,7 +5269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5230,7 +5280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5241,7 +5291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5252,7 +5302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5263,7 +5313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5274,7 +5324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -5285,7 +5335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -5296,7 +5346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -5307,7 +5357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -5318,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -5329,7 +5379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -5340,7 +5390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -5351,7 +5401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -5362,7 +5412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -5373,7 +5423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -5384,7 +5434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -5395,7 +5445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -5406,7 +5456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -5417,7 +5467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -5428,7 +5478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -5439,7 +5489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -5450,7 +5500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -5461,7 +5511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -5472,7 +5522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -5483,7 +5533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -5494,7 +5544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -5505,7 +5555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5516,7 +5566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -5527,7 +5577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5538,7 +5588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5549,7 +5599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5560,7 +5610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -5571,7 +5621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5582,7 +5632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5593,7 +5643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -5604,7 +5654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -5615,7 +5665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -5626,7 +5676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -5637,7 +5687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -5648,7 +5698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -5659,7 +5709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -5670,7 +5720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -5681,7 +5731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -5692,7 +5742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -5703,7 +5753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -5714,7 +5764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -5725,7 +5775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -5736,7 +5786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -5747,7 +5797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -5758,7 +5808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -5769,7 +5819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -5780,7 +5830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -5791,7 +5841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -5802,7 +5852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -5813,7 +5863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -5824,7 +5874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -5835,7 +5885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -5846,7 +5896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -5857,7 +5907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -5868,7 +5918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -5879,7 +5929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -5890,7 +5940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -5901,7 +5951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -5912,7 +5962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -5923,7 +5973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -5934,7 +5984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -5945,7 +5995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -5956,7 +6006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -5967,7 +6017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -5978,7 +6028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -5989,7 +6039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -6000,7 +6050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -6011,7 +6061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -6022,7 +6072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -6033,7 +6083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -6044,7 +6094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -6055,7 +6105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -6066,7 +6116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -6077,7 +6127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -6088,7 +6138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -6099,7 +6149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -6110,7 +6160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -6121,7 +6171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -6132,7 +6182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -6143,7 +6193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -6154,7 +6204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -6165,7 +6215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -6176,7 +6226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -6187,7 +6237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -6198,7 +6248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -6209,7 +6259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -6220,7 +6270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -6231,7 +6281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -6242,7 +6292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -6253,7 +6303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -6264,7 +6314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -6275,7 +6325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -6286,7 +6336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -6297,7 +6347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -6308,7 +6358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -6319,7 +6369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -6330,7 +6380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -6341,7 +6391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -6352,7 +6402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -6363,7 +6413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -6374,7 +6424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -6385,7 +6435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -6396,7 +6446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -6407,7 +6457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -6418,7 +6468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -6429,7 +6479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -6440,7 +6490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -6451,7 +6501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -6462,7 +6512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -6473,7 +6523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -6484,7 +6534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -6495,7 +6545,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -6506,7 +6556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -6517,7 +6567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -6528,7 +6578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -6539,7 +6589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -6550,7 +6600,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -6561,7 +6611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -6572,7 +6622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -6583,7 +6633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -6594,7 +6644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -6605,7 +6655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -6616,7 +6666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -6627,7 +6677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -6638,7 +6688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -6649,7 +6699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -6660,7 +6710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -6671,7 +6721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -6682,7 +6732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -6693,7 +6743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -6704,7 +6754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -6715,7 +6765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -6726,7 +6776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -6737,7 +6787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -6748,7 +6798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -6759,7 +6809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -6770,7 +6820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -6781,7 +6831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -6792,7 +6842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -6803,7 +6853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -6814,7 +6864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -6825,7 +6875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -6836,7 +6886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -6847,7 +6897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -6858,7 +6908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -6869,7 +6919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -6880,7 +6930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -6891,7 +6941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -6902,7 +6952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -6913,7 +6963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -6924,7 +6974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -6935,7 +6985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -6946,7 +6996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -6957,7 +7007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -6968,7 +7018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -6979,7 +7029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -6990,7 +7040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -7001,7 +7051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -7012,7 +7062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -7023,7 +7073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -7034,7 +7084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -7045,7 +7095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -7056,7 +7106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -7067,7 +7117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -7078,7 +7128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -7089,7 +7139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -7100,7 +7150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -7111,7 +7161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -7122,7 +7172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -7133,7 +7183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -7144,7 +7194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -7155,7 +7205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -7166,7 +7216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -7177,7 +7227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -7188,7 +7238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -7199,7 +7249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -7210,7 +7260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -7221,7 +7271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -7232,7 +7282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -7243,7 +7293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -7254,7 +7304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -7265,7 +7315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -7276,7 +7326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -7287,7 +7337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -7298,7 +7348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -7309,7 +7359,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -7320,7 +7370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -7331,7 +7381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -7342,7 +7392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -7353,7 +7403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -7364,7 +7414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -7375,7 +7425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -7386,7 +7436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -7397,7 +7447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -7408,7 +7458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -7419,7 +7469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -7430,7 +7480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -7441,7 +7491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -7452,7 +7502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -7463,7 +7513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -7474,7 +7524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -7485,7 +7535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -7496,7 +7546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -7507,7 +7557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -7518,7 +7568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -7529,7 +7579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -7540,7 +7590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -7551,7 +7601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -7562,7 +7612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -7573,7 +7623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -7584,7 +7634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -7595,7 +7645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -7606,7 +7656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -7617,7 +7667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -7628,7 +7678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -7639,7 +7689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -7650,7 +7700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -7661,7 +7711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -7672,7 +7722,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -7683,7 +7733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -7694,7 +7744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -7705,7 +7755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -7716,7 +7766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -7727,7 +7777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -7738,7 +7788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -7749,7 +7799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -7760,7 +7810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -7771,7 +7821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -7782,7 +7832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -7793,7 +7843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -7804,7 +7854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -7815,7 +7865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -7826,7 +7876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -7837,7 +7887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -7848,7 +7898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -7859,7 +7909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -7870,7 +7920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -7881,7 +7931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -7892,7 +7942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -7903,7 +7953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -7914,7 +7964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -7925,7 +7975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -7936,7 +7986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -7947,7 +7997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -7958,7 +8008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -7969,7 +8019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -7980,7 +8030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -7991,7 +8041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -8002,7 +8052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -8013,7 +8063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -8024,7 +8074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -8035,7 +8085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -8046,7 +8096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -8057,7 +8107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -8068,7 +8118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -8079,7 +8129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -8090,7 +8140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -8101,7 +8151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -8112,7 +8162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -8123,7 +8173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -8134,7 +8184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -8145,7 +8195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -8156,7 +8206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -8167,7 +8217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -8178,7 +8228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -8189,7 +8239,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -8200,7 +8250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -8211,7 +8261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -8222,7 +8272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -8233,7 +8283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -8244,7 +8294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -8255,7 +8305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -8266,7 +8316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -8277,7 +8327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -8288,7 +8338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -8299,7 +8349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -8310,7 +8360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -8321,7 +8371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -8332,7 +8382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -8343,7 +8393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -8354,7 +8404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -8365,7 +8415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -8376,7 +8426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -8387,7 +8437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -8398,7 +8448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -8409,7 +8459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -8420,7 +8470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -8431,7 +8481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -8442,7 +8492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -8453,7 +8503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -8464,7 +8514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -8475,7 +8525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -8486,7 +8536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -8497,7 +8547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -8508,7 +8558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -8519,7 +8569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -8530,7 +8580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -8541,7 +8591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -8552,7 +8602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -8563,7 +8613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -8574,7 +8624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -8585,7 +8635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -8596,7 +8646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -8607,7 +8657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -8618,7 +8668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -8629,7 +8679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -8640,7 +8690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -8651,7 +8701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -8662,7 +8712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -8673,7 +8723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -8684,7 +8734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -8695,7 +8745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -8706,7 +8756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -8717,7 +8767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -8728,7 +8778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -8739,7 +8789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -8750,7 +8800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -8761,7 +8811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -8772,7 +8822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -8783,7 +8833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -8794,7 +8844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -8805,7 +8855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -8816,7 +8866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -8827,7 +8877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -8838,7 +8888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -8849,7 +8899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -8860,7 +8910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -8871,7 +8921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -8882,7 +8932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -8893,7 +8943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -8904,7 +8954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -8915,7 +8965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -8926,7 +8976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -8937,7 +8987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -8948,7 +8998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -8959,7 +9009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -8970,7 +9020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -8981,7 +9031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -8992,7 +9042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -9003,7 +9053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -9014,7 +9064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -9025,7 +9075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -9036,7 +9086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -9047,7 +9097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -9058,7 +9108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -9069,7 +9119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -9080,7 +9130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -9091,7 +9141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -9102,7 +9152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -9113,7 +9163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -9124,7 +9174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -9135,7 +9185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -9146,7 +9196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -9157,7 +9207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -9168,7 +9218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -9179,7 +9229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -9190,7 +9240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -9201,7 +9251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -9212,7 +9262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -9223,7 +9273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -9234,7 +9284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -9245,7 +9295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -9256,7 +9306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -9267,7 +9317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -9278,7 +9328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -9289,7 +9339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -9300,7 +9350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -9311,7 +9361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -9322,7 +9372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -9333,7 +9383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -9344,7 +9394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -9355,7 +9405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -9366,7 +9416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -9377,7 +9427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -9388,7 +9438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -9399,7 +9449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -9410,7 +9460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -9421,7 +9471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -9432,7 +9482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -9443,7 +9493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -9454,7 +9504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -9465,7 +9515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -9476,7 +9526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -9487,7 +9537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -9498,7 +9548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -9509,7 +9559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -9520,7 +9570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -9531,7 +9581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -9542,7 +9592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -9553,7 +9603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -9564,7 +9614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -9575,7 +9625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -9586,7 +9636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -9597,7 +9647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -9608,7 +9658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -9619,7 +9669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -9630,7 +9680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -9641,7 +9691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -9652,7 +9702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -9663,7 +9713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -9674,7 +9724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -9685,7 +9735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -9696,7 +9746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -9707,7 +9757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -9718,7 +9768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -9729,7 +9779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -9740,7 +9790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -9751,7 +9801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -9762,7 +9812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -9773,7 +9823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -9784,7 +9834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -9795,7 +9845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -9806,7 +9856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -9817,7 +9867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -9828,7 +9878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -9839,7 +9889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -9850,7 +9900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -9861,7 +9911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -9872,7 +9922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -9883,7 +9933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -9894,7 +9944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -9905,7 +9955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -9916,7 +9966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -9927,7 +9977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -9938,7 +9988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -9949,7 +9999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -9960,7 +10010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -9971,7 +10021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -9982,7 +10032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -9993,7 +10043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -10004,7 +10054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -10015,7 +10065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -10026,7 +10076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -10037,7 +10087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -10048,7 +10098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -10059,7 +10109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -10070,7 +10120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -10081,7 +10131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -10092,7 +10142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -10103,7 +10153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -10114,7 +10164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -10125,7 +10175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -10136,7 +10186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -10147,7 +10197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -10158,7 +10208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -10169,7 +10219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -10180,7 +10230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -10191,7 +10241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -10202,7 +10252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -10213,7 +10263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -10224,7 +10274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -10235,7 +10285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -10246,7 +10296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -10257,7 +10307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -10268,7 +10318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -10279,7 +10329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -10290,7 +10340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -10301,7 +10351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -10312,7 +10362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -10323,7 +10373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -10334,7 +10384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -10345,7 +10395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -10356,7 +10406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -10367,7 +10417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -10378,7 +10428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -10389,7 +10439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -10400,7 +10450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -10411,7 +10461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -10428,14 +10478,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>716</v>
       </c>
@@ -10446,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10460,7 +10516,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10474,7 +10530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10488,7 +10544,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10502,7 +10558,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10516,7 +10572,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10530,7 +10586,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10544,7 +10600,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10558,7 +10614,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10572,7 +10628,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10586,7 +10642,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10600,7 +10656,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10614,7 +10670,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10628,7 +10684,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10642,7 +10698,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10656,7 +10712,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10670,7 +10726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10684,7 +10740,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10698,7 +10754,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10712,7 +10768,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10726,7 +10782,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10740,7 +10796,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10754,7 +10810,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10768,7 +10824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10782,7 +10838,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -10796,7 +10852,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -10810,7 +10866,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -10824,7 +10880,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -10838,7 +10894,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -10852,7 +10908,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -10866,7 +10922,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -10880,7 +10936,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -10894,7 +10950,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -10908,7 +10964,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10922,7 +10978,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10936,7 +10992,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10950,7 +11006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10964,7 +11020,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -10978,7 +11034,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -10992,7 +11048,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11006,7 +11062,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11020,7 +11076,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11034,7 +11090,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11048,7 +11104,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11062,7 +11118,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11076,7 +11132,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11090,7 +11146,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11104,7 +11160,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11118,7 +11174,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11132,7 +11188,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11146,7 +11202,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11160,7 +11216,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11174,7 +11230,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11188,7 +11244,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11202,7 +11258,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11216,7 +11272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11230,7 +11286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11244,7 +11300,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11258,7 +11314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11272,7 +11328,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11286,7 +11342,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11300,7 +11356,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11314,7 +11370,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11328,7 +11384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -11342,7 +11398,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11356,7 +11412,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11370,7 +11426,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -11384,7 +11440,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -11398,7 +11454,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -11412,7 +11468,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11426,7 +11482,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11440,7 +11496,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11454,7 +11510,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11468,7 +11524,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11482,7 +11538,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11496,7 +11552,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11510,7 +11566,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11524,7 +11580,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11538,7 +11594,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11552,7 +11608,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11566,7 +11622,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11580,7 +11636,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11594,7 +11650,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11608,7 +11664,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11622,7 +11678,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11636,7 +11692,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11650,7 +11706,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11664,7 +11720,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -11678,7 +11734,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -11692,7 +11748,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -11706,7 +11762,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -11720,7 +11776,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -11734,7 +11790,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -11748,7 +11804,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -11762,7 +11818,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -11776,7 +11832,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -11790,7 +11846,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -11804,7 +11860,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -11818,7 +11874,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -11832,7 +11888,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -11846,7 +11902,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -11860,7 +11916,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -11874,7 +11930,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -11888,7 +11944,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -11902,7 +11958,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -11922,14 +11978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>716</v>
       </c>
@@ -11940,7 +11996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11954,7 +12010,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11968,7 +12024,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11982,7 +12038,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11996,7 +12052,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12010,7 +12066,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12024,7 +12080,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12038,7 +12094,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12052,7 +12108,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12066,7 +12122,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12080,7 +12136,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12094,7 +12150,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12108,7 +12164,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12122,7 +12178,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12136,7 +12192,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12150,7 +12206,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12164,7 +12220,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12178,7 +12234,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12192,7 +12248,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12206,7 +12262,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12220,7 +12276,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12234,7 +12290,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12248,7 +12304,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12262,7 +12318,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12276,7 +12332,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
